--- a/TestExcel/Content/import/ขบวน2-2561.xlsx
+++ b/TestExcel/Content/import/ขบวน2-2561.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC7BC2-982E-4D91-BD3D-C387984B786E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440621C2-1A3E-4EC0-B65A-051E4CA08F50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="7530" xr2:uid="{BF658315-3169-4F60-9F23-A9CB1C9B7511}"/>
   </bookViews>
@@ -8172,17 +8172,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8643,12 +8643,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6E2334-C998-4D85-AA6C-6867E15494DF}">
   <dimension ref="B2:L2413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N613" sqref="N613"/>
+    <sheetView tabSelected="1" topLeftCell="A1545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1553" sqref="M1553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9485,7 +9486,7 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="163"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="67" t="s">
         <v>5</v>
       </c>
@@ -9516,7 +9517,7 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="163"/>
+      <c r="B37" s="161"/>
       <c r="C37" s="67" t="s">
         <v>13</v>
       </c>
@@ -9541,7 +9542,7 @@
       <c r="L37" s="65"/>
     </row>
     <row r="38" spans="2:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="163"/>
+      <c r="B38" s="161"/>
       <c r="C38" s="67" t="s">
         <v>16</v>
       </c>
@@ -9566,7 +9567,7 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="163"/>
+      <c r="B39" s="161"/>
       <c r="C39" s="71" t="s">
         <v>20</v>
       </c>
@@ -9642,7 +9643,7 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="24" x14ac:dyDescent="0.5">
-      <c r="B43" s="163"/>
+      <c r="B43" s="161"/>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
@@ -9673,7 +9674,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="B44" s="163"/>
+      <c r="B44" s="161"/>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
@@ -11488,13 +11489,13 @@
       <c r="B126" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C126" s="161" t="s">
+      <c r="C126" s="160" t="s">
         <v>203</v>
       </c>
-      <c r="D126" s="161"/>
-      <c r="E126" s="161"/>
-      <c r="F126" s="161"/>
-      <c r="G126" s="161"/>
+      <c r="D126" s="160"/>
+      <c r="E126" s="160"/>
+      <c r="F126" s="160"/>
+      <c r="G126" s="160"/>
       <c r="H126" s="21" t="s">
         <v>177</v>
       </c>
@@ -13406,12 +13407,12 @@
       <c r="B212" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C212" s="161" t="s">
+      <c r="C212" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="D212" s="161"/>
-      <c r="E212" s="161"/>
-      <c r="F212" s="161"/>
+      <c r="D212" s="160"/>
+      <c r="E212" s="160"/>
+      <c r="F212" s="160"/>
       <c r="G212" s="66"/>
       <c r="H212" s="21" t="s">
         <v>282</v>
@@ -14553,12 +14554,12 @@
       <c r="B267" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C267" s="161" t="s">
+      <c r="C267" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="D267" s="161"/>
-      <c r="E267" s="161"/>
-      <c r="F267" s="161"/>
+      <c r="D267" s="160"/>
+      <c r="E267" s="160"/>
+      <c r="F267" s="160"/>
       <c r="G267" s="66"/>
       <c r="H267" s="21" t="s">
         <v>2</v>
@@ -14622,11 +14623,11 @@
       <c r="B270" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C270" s="161" t="s">
+      <c r="C270" s="160" t="s">
         <v>333</v>
       </c>
-      <c r="D270" s="161"/>
-      <c r="E270" s="161"/>
+      <c r="D270" s="160"/>
+      <c r="E270" s="160"/>
       <c r="F270" s="66"/>
       <c r="G270" s="66"/>
       <c r="H270" s="21" t="s">
@@ -14979,12 +14980,12 @@
       <c r="B287" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="C287" s="161" t="s">
+      <c r="C287" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="D287" s="161"/>
-      <c r="E287" s="161"/>
-      <c r="F287" s="161"/>
+      <c r="D287" s="160"/>
+      <c r="E287" s="160"/>
+      <c r="F287" s="160"/>
       <c r="G287" s="66"/>
       <c r="H287" s="21" t="s">
         <v>355</v>
@@ -29646,13 +29647,13 @@
       <c r="B964" s="29" t="s">
         <v>967</v>
       </c>
-      <c r="C964" s="160" t="s">
+      <c r="C964" s="163" t="s">
         <v>968</v>
       </c>
-      <c r="D964" s="160"/>
-      <c r="E964" s="160"/>
-      <c r="F964" s="160"/>
-      <c r="G964" s="160"/>
+      <c r="D964" s="163"/>
+      <c r="E964" s="163"/>
+      <c r="F964" s="163"/>
+      <c r="G964" s="163"/>
       <c r="H964" s="9" t="s">
         <v>2</v>
       </c>
@@ -30147,12 +30148,12 @@
       <c r="B985" s="30" t="s">
         <v>991</v>
       </c>
-      <c r="C985" s="160" t="s">
+      <c r="C985" s="163" t="s">
         <v>992</v>
       </c>
-      <c r="D985" s="160"/>
-      <c r="E985" s="160"/>
-      <c r="F985" s="160"/>
+      <c r="D985" s="163"/>
+      <c r="E985" s="163"/>
+      <c r="F985" s="163"/>
       <c r="G985" s="12"/>
       <c r="H985" s="9" t="s">
         <v>2</v>
@@ -50300,11 +50301,11 @@
       <c r="B1953" s="146" t="s">
         <v>1956</v>
       </c>
-      <c r="C1953" s="160" t="s">
+      <c r="C1953" s="163" t="s">
         <v>1957</v>
       </c>
-      <c r="D1953" s="160"/>
-      <c r="E1953" s="160"/>
+      <c r="D1953" s="163"/>
+      <c r="E1953" s="163"/>
       <c r="F1953" s="12"/>
       <c r="G1953" s="12"/>
       <c r="H1953" s="9" t="s">
@@ -51950,12 +51951,12 @@
       <c r="B2027" s="146" t="s">
         <v>2032</v>
       </c>
-      <c r="C2027" s="160" t="s">
+      <c r="C2027" s="163" t="s">
         <v>2033</v>
       </c>
-      <c r="D2027" s="160"/>
-      <c r="E2027" s="160"/>
-      <c r="F2027" s="160"/>
+      <c r="D2027" s="163"/>
+      <c r="E2027" s="163"/>
+      <c r="F2027" s="163"/>
       <c r="G2027" s="12"/>
       <c r="H2027" s="9" t="s">
         <v>2</v>
@@ -58684,11 +58685,11 @@
       <c r="B2329" s="146" t="s">
         <v>2377</v>
       </c>
-      <c r="C2329" s="160" t="s">
+      <c r="C2329" s="163" t="s">
         <v>2378</v>
       </c>
-      <c r="D2329" s="160"/>
-      <c r="E2329" s="160"/>
+      <c r="D2329" s="163"/>
+      <c r="E2329" s="163"/>
       <c r="F2329" s="12"/>
       <c r="G2329" s="12"/>
       <c r="H2329" s="9" t="s">
@@ -60600,6 +60601,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1953:E1953"/>
+    <mergeCell ref="C2027:F2027"/>
+    <mergeCell ref="C2329:E2329"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="C287:F287"/>
+    <mergeCell ref="C964:G964"/>
+    <mergeCell ref="C985:F985"/>
     <mergeCell ref="C267:F267"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B43:B44"/>
@@ -60608,13 +60616,6 @@
     <mergeCell ref="C104:F104"/>
     <mergeCell ref="C126:G126"/>
     <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C1953:E1953"/>
-    <mergeCell ref="C2027:F2027"/>
-    <mergeCell ref="C2329:E2329"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="C287:F287"/>
-    <mergeCell ref="C964:G964"/>
-    <mergeCell ref="C985:F985"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
